--- a/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
+++ b/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Arquivos\GitHub\Manager\ProjectResources\Public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leand\Projetos\Manager\ProjectResources\Public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79B1949-4762-43EF-BC32-EC41D0B9EAF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{3C13B466-BAFF-41BA-8B5B-84F3F833D80F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
-  <si>
-    <t>CLIENTE:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>HORÍMETRO</t>
   </si>
@@ -51,21 +47,12 @@
     <t>SEPARADOR</t>
   </si>
   <si>
-    <t>ÓLEO</t>
-  </si>
-  <si>
     <t>FILTRO ÓLEO</t>
   </si>
   <si>
     <t>FILTRO AR</t>
   </si>
   <si>
-    <t>RECONSTRUIR UNIDADE (S/N)</t>
-  </si>
-  <si>
-    <t>SUBSTITUIR CORREIA (S/N)</t>
-  </si>
-  <si>
     <t>PEÇAS SUBSTITUÍDAS</t>
   </si>
   <si>
@@ -81,24 +68,12 @@
     <t>Nº xxxx</t>
   </si>
   <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>HORA</t>
-  </si>
-  <si>
-    <t>DESLOCAMENTO</t>
-  </si>
-  <si>
     <t>FILTROS COALESCENTES</t>
   </si>
   <si>
     <t>CLIENTE</t>
   </si>
   <si>
-    <t>(Carimbo e Assinatura)</t>
-  </si>
-  <si>
     <t>_____________________________________</t>
   </si>
   <si>
@@ -114,9 +89,6 @@
     <t>RELATÓRIO DE ATENDIMENTO</t>
   </si>
   <si>
-    <t>CIDADE:                                                                          UF:              CONTATO:                           FONE:</t>
-  </si>
-  <si>
     <t>INFORMAÇÕES DO EQUIPAMENTO</t>
   </si>
   <si>
@@ -135,86 +107,215 @@
     <t>PARECER TÉCNICO:</t>
   </si>
   <si>
+    <t>PROX. TROCA</t>
+  </si>
+  <si>
+    <t>ELEMENTO</t>
+  </si>
+  <si>
+    <t>RECONSTRUIR UND.</t>
+  </si>
+  <si>
+    <t>ÚLTIMA TROCA</t>
+  </si>
+  <si>
     <r>
       <t>DATA:</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ____/____/_______</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TIPO DE VISITA:</t>
+      <t xml:space="preserve"> 00/00/0000</t>
+    </r>
+  </si>
+  <si>
+    <t>CAPACIDADE</t>
+  </si>
+  <si>
+    <t>CORRIDO</t>
+  </si>
+  <si>
+    <t>EFS 70U</t>
+  </si>
+  <si>
+    <t>EFS 70H</t>
+  </si>
+  <si>
+    <t>00/00/000</t>
+  </si>
+  <si>
+    <t>FILTRO DE OLEO</t>
+  </si>
+  <si>
+    <t>FILTRO DE AR</t>
+  </si>
+  <si>
+    <t>ELEMENTO SEPARADOR</t>
+  </si>
+  <si>
+    <t>OLEO</t>
+  </si>
+  <si>
+    <r>
+      <t>CLIENTE:</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="10"/>
         <color theme="1"/>
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (   ) LEVANTAMENTO (   ) EXECUÇÃO (   ) CONTRATO</t>
-    </r>
-  </si>
-  <si>
-    <t>SAÍDA EMP.</t>
-  </si>
-  <si>
-    <t>CHEGADA CLI.</t>
-  </si>
-  <si>
-    <t>SAÍDA CLI.</t>
-  </si>
-  <si>
-    <t>CHEGADA EMP.</t>
-  </si>
-  <si>
-    <t>PROX. TROCA</t>
-  </si>
-  <si>
-    <t>ELEMENTO</t>
-  </si>
-  <si>
-    <t>(  ) 1M (X) 4M (  ) 8M</t>
+      <t xml:space="preserve"> CLIENTE 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CIDADE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CIDADE 1 | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>UF:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> XX | </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONTATO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CONTATO 1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> | FONE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (00) 0000-0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TIPO DE VISITA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( ) LEVANTAMENTO ( ) EXECUÇÃO ( ) CONTRATO</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>INÍCIO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00:00    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>FIM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00:00</t>
+    </r>
+  </si>
+  <si>
+    <t>TIPO ÓLEO</t>
+  </si>
+  <si>
+    <t>NÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -231,26 +332,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,7 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,34 +437,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -425,28 +501,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -458,104 +595,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,7 +679,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>632756</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,7 +754,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="3314703" y="76201"/>
-          <a:ext cx="1657348" cy="606256"/>
+          <a:ext cx="1657348" cy="511006"/>
           <a:chOff x="2800352" y="57152"/>
           <a:chExt cx="1990724" cy="728205"/>
         </a:xfrm>
@@ -771,14 +863,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>748670</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>249556</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1116,81 +1208,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A00D2F-62E6-4DE6-8526-EB00ED17C155}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G49"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="12.7109375" style="1"/>
+    <col min="1" max="7" width="15.7109375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="12.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="13"/>
+    </row>
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+    </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="3" t="s">
-        <v>36</v>
+      <c r="A6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="A7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="A8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1199,42 +1302,42 @@
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="F12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="13" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>5</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1243,355 +1346,339 @@
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1200</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="6">
+        <v>365</v>
+      </c>
+      <c r="G21" s="6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6">
+        <v>365</v>
+      </c>
+      <c r="G22" s="6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="38">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="13" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>2</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>3</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>4</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+    </row>
+    <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="E41" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="22"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="34"/>
-    </row>
-    <row r="36" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-    </row>
-    <row r="37" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-    </row>
-    <row r="38" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-    </row>
-    <row r="39" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-    </row>
-    <row r="43" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="E43" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="E44" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-    </row>
-    <row r="46" spans="1:7" ht="11.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-    </row>
-    <row r="49" spans="1:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A48:G48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="A35:G38"/>
-    <mergeCell ref="B32:F32"/>
+  <mergeCells count="25">
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A32:G35"/>
+    <mergeCell ref="B29:F29"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:G24"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
+++ b/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
@@ -65,9 +65,6 @@
     <t>PEÇA</t>
   </si>
   <si>
-    <t>Nº xxxx</t>
-  </si>
-  <si>
     <t>FILTROS COALESCENTES</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>NÃO</t>
+  </si>
+  <si>
+    <t>N-125A12441251</t>
   </si>
 </sst>
 </file>
@@ -556,6 +556,57 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -563,9 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -577,6 +625,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,15 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,50 +646,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,13 +730,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>171453</xdr:colOff>
+      <xdr:colOff>85728</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>781051</xdr:colOff>
+      <xdr:colOff>695326</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>130007</xdr:rowOff>
     </xdr:to>
@@ -753,7 +753,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3314703" y="76201"/>
+          <a:off x="3228978" y="76201"/>
           <a:ext cx="1657348" cy="511006"/>
           <a:chOff x="2800352" y="57152"/>
           <a:chExt cx="1990724" cy="728205"/>
@@ -1215,7 +1215,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,95 +1225,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="13" t="s">
-        <v>13</v>
+      <c r="G1" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="13"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="13"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
+      <c r="A4" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="A11" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -1336,19 +1336,19 @@
     </row>
     <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
-        <v>29</v>
+      <c r="A16" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>8</v>
@@ -1363,17 +1363,17 @@
         <v>6</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="39">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10">
         <v>1200</v>
       </c>
       <c r="C17" s="7">
@@ -1394,46 +1394,46 @@
     </row>
     <row r="18" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
+      <c r="A19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="9" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="6">
         <v>365</v>
@@ -1443,16 +1443,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="E22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="6">
         <v>365</v>
@@ -1463,27 +1463,27 @@
     </row>
     <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="9" t="s">
         <v>11</v>
       </c>
@@ -1492,13 +1492,13 @@
       <c r="A26" s="8">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="B26" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="25"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
@@ -1507,13 +1507,13 @@
       <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
@@ -1522,13 +1522,13 @@
       <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
+      <c r="B28" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="6">
         <v>1</v>
       </c>
@@ -1537,125 +1537,122 @@
       <c r="A29" s="6">
         <v>4</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="A31" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="29"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="A40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="E40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="E41" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="E40" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="E41" s="38" t="s">
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A7:G7"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A32:G35"/>
@@ -1672,9 +1669,12 @@
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A44:G44"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
+++ b/ProjectResources/Public/Ficha Relatorio De Atendimento.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>HORÍMETRO</t>
   </si>
@@ -47,12 +47,6 @@
     <t>SEPARADOR</t>
   </si>
   <si>
-    <t>FILTRO ÓLEO</t>
-  </si>
-  <si>
-    <t>FILTRO AR</t>
-  </si>
-  <si>
     <t>PEÇAS SUBSTITUÍDAS</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t>INFORMAÇÕES DO EQUIPAMENTO</t>
   </si>
   <si>
-    <t>EQUIPAMENTO</t>
-  </si>
-  <si>
     <t>PRESSÃO TRAB.</t>
   </si>
   <si>
@@ -114,20 +105,6 @@
   </si>
   <si>
     <t>ÚLTIMA TROCA</t>
-  </si>
-  <si>
-    <r>
-      <t>DATA:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 00/00/0000</t>
-    </r>
   </si>
   <si>
     <t>CAPACIDADE</t>
@@ -171,6 +148,15 @@
     </r>
   </si>
   <si>
+    <t>TIPO ÓLEO</t>
+  </si>
+  <si>
+    <t>NÃO</t>
+  </si>
+  <si>
+    <t>N-125A12441251</t>
+  </si>
+  <si>
     <r>
       <t>CIDADE:</t>
     </r>
@@ -181,7 +167,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> CIDADE 1 | </t>
+      <t xml:space="preserve"> CIDADE 1      </t>
     </r>
     <r>
       <rPr>
@@ -200,7 +186,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> XX | </t>
+      <t xml:space="preserve"> XX      </t>
     </r>
     <r>
       <rPr>
@@ -219,7 +205,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> CONTATO 1</t>
+      <t xml:space="preserve"> CONTATO 1      </t>
     </r>
     <r>
       <rPr>
@@ -229,7 +215,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> | FONE:</t>
+      <t>FONE:</t>
     </r>
     <r>
       <rPr>
@@ -252,10 +238,8 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> ( ) LEVANTAMENTO ( ) EXECUÇÃO ( ) CONTRATO</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> LEVANTAMENTO      </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -264,7 +248,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>INÍCIO:</t>
+      <t>DATA:</t>
     </r>
     <r>
       <rPr>
@@ -273,7 +257,7 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> 00:00    </t>
+      <t xml:space="preserve"> 00/00/00     </t>
     </r>
     <r>
       <rPr>
@@ -283,7 +267,26 @@
         <rFont val="Century Gothic"/>
         <family val="2"/>
       </rPr>
-      <t>FIM:</t>
+      <t xml:space="preserve"> INICIO:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00:00     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> FIM:</t>
     </r>
     <r>
       <rPr>
@@ -296,20 +299,17 @@
     </r>
   </si>
   <si>
-    <t>TIPO ÓLEO</t>
-  </si>
-  <si>
-    <t>NÃO</t>
-  </si>
-  <si>
-    <t>N-125A12441251</t>
+    <t>COMPRESSOR</t>
+  </si>
+  <si>
+    <t>FILTRO DE ÓLEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +333,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
       <family val="2"/>
@@ -527,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,11 +566,26 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,27 +626,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -646,8 +647,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -727,149 +740,17 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85728</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>695326</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>130007</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="Agrupar 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D202EDF1-EF48-41A4-97AD-199C6DD02A97}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3228978" y="76201"/>
-          <a:ext cx="1657348" cy="511006"/>
-          <a:chOff x="2800352" y="57152"/>
-          <a:chExt cx="1990724" cy="728205"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="Imagem 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91C851E-8D65-4599-827E-C26E3DE1B4CF}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-            <a:extLst>
-              <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-                <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                  <a14:imgLayer r:embed="rId4">
-                    <a14:imgEffect>
-                      <a14:saturation sat="0"/>
-                    </a14:imgEffect>
-                  </a14:imgLayer>
-                </a14:imgProps>
-              </a:ext>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2800352" y="247651"/>
-            <a:ext cx="1990724" cy="537706"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="CaixaDeTexto 7">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50119D1D-925A-4B6C-864A-D5CFA2DF9DF2}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2924120" y="57152"/>
-            <a:ext cx="1821191" cy="205937"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="900" b="1"/>
-              <a:t>DISTRIBUIDOR</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" sz="900" b="1" baseline="0"/>
-              <a:t> AUTORIZADO</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR" sz="900" b="1"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>748670</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>68581</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -886,7 +767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1212,10 +1093,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A18" sqref="A18:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1225,215 +1106,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="40" t="s">
-        <v>46</v>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="40"/>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="40"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="A4" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:7" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="D15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1200</v>
+      </c>
+      <c r="G16" s="41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="6">
+        <v>365</v>
+      </c>
+      <c r="G20" s="6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1200</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="4">
-        <v>1200</v>
-      </c>
-      <c r="G17" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="9" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" s="6">
         <v>365</v>
@@ -1442,239 +1334,220 @@
         <v>380</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="6">
-        <v>365</v>
-      </c>
-      <c r="G22" s="6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="9" t="s">
-        <v>11</v>
+      <c r="A25" s="8">
+        <v>1</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
+      <c r="A26" s="6">
+        <v>2</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30"/>
       <c r="G26" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>2</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
+        <v>3</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
       <c r="G27" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>3</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
       <c r="G28" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>4</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+    </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="19"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-    </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="E40" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="E41" s="12" t="s">
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="A43:G43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A31:G34"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A32:G35"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A43:G43"/>
-    <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
